--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\sidewalk_service_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6598C4E-52BD-4897-8FAB-88D780302A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD1E666-9DBA-47A7-9421-4B36BAA21BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" activeTab="3" xr2:uid="{F20C68B3-3D5D-4528-A90E-249FF6CBE367}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="2Sem2018" sheetId="1" r:id="rId2"/>
     <sheet name="Ano2018" sheetId="3" r:id="rId3"/>
     <sheet name="Ranking-Calcadas" sheetId="4" r:id="rId4"/>
-    <sheet name="Ranking Guias rebaixadas" sheetId="5" r:id="rId5"/>
+    <sheet name="Populacao" sheetId="6" r:id="rId5"/>
+    <sheet name="Ranking Guias rebaixadas" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="83">
   <si>
     <t>Subprefeitura</t>
   </si>
@@ -173,13 +174,131 @@
   </si>
   <si>
     <t>População</t>
+  </si>
+  <si>
+    <t>419142</t>
+  </si>
+  <si>
+    <t>280851</t>
+  </si>
+  <si>
+    <t>484995</t>
+  </si>
+  <si>
+    <t>385051</t>
+  </si>
+  <si>
+    <t>549220</t>
+  </si>
+  <si>
+    <t>SÃO PAULO(Município)</t>
+  </si>
+  <si>
+    <t>11753659</t>
+  </si>
+  <si>
+    <t>228281</t>
+  </si>
+  <si>
+    <t>503164</t>
+  </si>
+  <si>
+    <t>242705</t>
+  </si>
+  <si>
+    <t>357773</t>
+  </si>
+  <si>
+    <t>230921</t>
+  </si>
+  <si>
+    <t>473549</t>
+  </si>
+  <si>
+    <t>157478</t>
+  </si>
+  <si>
+    <t>168743</t>
+  </si>
+  <si>
+    <t>492612</t>
+  </si>
+  <si>
+    <t>586649</t>
+  </si>
+  <si>
+    <t>320091</t>
+  </si>
+  <si>
+    <t>457122</t>
+  </si>
+  <si>
+    <t>244053</t>
+  </si>
+  <si>
+    <t>325052</t>
+  </si>
+  <si>
+    <t>288801</t>
+  </si>
+  <si>
+    <t>455427</t>
+  </si>
+  <si>
+    <t>294946</t>
+  </si>
+  <si>
+    <t>354266</t>
+  </si>
+  <si>
+    <t>247603</t>
+  </si>
+  <si>
+    <t>265543</t>
+  </si>
+  <si>
+    <t>454048</t>
+  </si>
+  <si>
+    <t>673432</t>
+  </si>
+  <si>
+    <t>622021</t>
+  </si>
+  <si>
+    <t>311264</t>
+  </si>
+  <si>
+    <t>439912</t>
+  </si>
+  <si>
+    <t>230610</t>
+  </si>
+  <si>
+    <t>208334</t>
+  </si>
+  <si>
+    <t>População_p</t>
+  </si>
+  <si>
+    <t>Guias rebaixadas_p</t>
+  </si>
+  <si>
+    <t>As percentages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +329,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,18 +360,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -255,18 +420,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C63152D7-1AA0-4E9A-BFBA-49C0C0691B92}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="40">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -279,8 +451,26 @@
       </font>
       <fill>
         <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -310,6 +500,69 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -332,6 +585,85 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -502,65 +834,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -977,11 +1250,1177 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Guias</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> rebaixadas e População</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ranking-Calcadas'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>População_p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$E$3:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.3398210718891879E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4356635665540407E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7725033540619137E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9422122081302513E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9620273142176407E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9646732987574338E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0649314396478578E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.076400208649919E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1066035691523804E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2592368895507347E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3894771832328979E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4571156947806636E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5093972864109807E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.648230648855816E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7233306666460205E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7655387994496013E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0140911864126738E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0439287033935562E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2760096238966946E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5660554725979371E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7427664015095216E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8630353322314355E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8747678488885884E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.889188890029905E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0289496232619987E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1263320639130331E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1911374151657792E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2809137137635185E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6727576493413671E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9912031649037972E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2921477473525477E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.7295519633503066E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0A0-4433-B1E6-51CDBDDB35DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ranking-Calcadas'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Guias rebaixadas_p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$F$3:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.9267822736030828E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9267822736030828E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5048169556840076E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.119460500963391E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1560693641618497E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8901734104046242E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.348747591522158E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1001926782273603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.348747591522158E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6339113680154135E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9267822736030828E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7071290944123313E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2485549132947972E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3121387283236993E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6974951830443159E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5414258188824663E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9364161849710976E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5510597302504817E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1560693641618497E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8901734104046242E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4315992292870907E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3949903660886318E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9364161849710976E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7341040462427744E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5414258188824663E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6608863198458574E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5876685934489405E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.3949903660886318E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.119460500963391E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.348747591522158E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.6339113680154135E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8535645472061654E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0A0-4433-B1E6-51CDBDDB35DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1231101567"/>
+        <c:axId val="1237437007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1231101567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1237437007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1237437007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231101567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>135730</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173830</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F151B2E9-863F-4DDF-88ED-06A77E36FC41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77AF48A9-7393-4472-BEF2-39B89A58BF93}" name="Table1" displayName="Table1" ref="B2:D36" totalsRowCount="1" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77AF48A9-7393-4472-BEF2-39B89A58BF93}" name="Table1" displayName="Table1" ref="B2:D36" totalsRowCount="1" headerRowDxfId="38">
   <autoFilter ref="B2:D35" xr:uid="{357B1428-2086-456B-8B30-E6E242BCE77D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BEA5ACF0-C4BB-424B-9A3D-91F100691024}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="34" totalsRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{BEA5ACF0-C4BB-424B-9A3D-91F100691024}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="24"/>
     <tableColumn id="2" xr3:uid="{52992C78-2935-436C-81F0-30BCA439A3EE}" name="Calçadas, guias e postes" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{D332F945-37BA-46D0-9287-CDE8D0903E18}" name="Guias rebaixadas" totalsRowFunction="sum"/>
   </tableColumns>
@@ -990,27 +2429,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1431F7D6-8C98-44A9-ADA0-D98C55143BF6}" name="Table2" displayName="Table2" ref="B2:D36" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1431F7D6-8C98-44A9-ADA0-D98C55143BF6}" name="Table2" displayName="Table2" ref="B2:D36" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B2:D35" xr:uid="{E998A03B-CCDB-485F-80E0-6B70C5CA9314}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{766633CC-ED06-439F-A1EC-73AB1031A63A}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C3D81166-EA6A-401C-B345-C228E6A665C5}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{28ECA203-FD33-4A62-A721-2FF06A780280}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{766633CC-ED06-439F-A1EC-73AB1031A63A}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{C3D81166-EA6A-401C-B345-C228E6A665C5}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{28ECA203-FD33-4A62-A721-2FF06A780280}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B8BB3E0-1B4D-42F9-813D-EFE1A36C6E77}" name="Table24" displayName="Table24" ref="B2:D36" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B8BB3E0-1B4D-42F9-813D-EFE1A36C6E77}" name="Table24" displayName="Table24" ref="B2:D36" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="B2:D35" xr:uid="{518F44FB-9DBC-41D5-8114-3D9EF86FCEB1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DCB3581C-0F45-4CF2-932F-F6CAD9D2838B}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{6BB4E364-3ECA-4D4C-BEB7-03083F1E4B09}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{DCB3581C-0F45-4CF2-932F-F6CAD9D2838B}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6BB4E364-3ECA-4D4C-BEB7-03083F1E4B09}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="22">
       <calculatedColumnFormula>SUMIF('1Sem2018'!$B$3:$B$35,B3,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B3,Table2[Calçadas, guias e postes])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6314B22A-9730-496E-90C1-72EF5F0F84DB}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="16">
+    <tableColumn id="3" xr3:uid="{6314B22A-9730-496E-90C1-72EF5F0F84DB}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="21">
       <calculatedColumnFormula>SUMIF('1Sem2018'!$B$3:$B$35,B3,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B3,Table2[Guias rebaixadas])</calculatedColumnFormula>
     </tableColumn>
@@ -1042,30 +2481,47 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC5431D6-A07F-4750-9E81-D044B212416E}" name="Table247" displayName="Table247" ref="B2:D36" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B2:D35" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D35">
-    <sortCondition ref="D2:D35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC5431D6-A07F-4750-9E81-D044B212416E}" name="Table247" displayName="Table247" ref="B2:F35" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B2:F34" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F34">
+    <sortCondition ref="C2:C34"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AD5B0124-F4F5-41C4-BBED-8BB815ABA9B4}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7E0A9D30-E148-4D46-8C91-26143F699A25}" name="População" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{61E4DFDB-5771-4DFF-8604-5CC5A3E13AD9}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AD5B0124-F4F5-41C4-BBED-8BB815ABA9B4}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7E0A9D30-E148-4D46-8C91-26143F699A25}" name="População" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{61E4DFDB-5771-4DFF-8604-5CC5A3E13AD9}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7323760F-6051-43E4-B056-878D4095FF1D}" name="População_p" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B00A9779-43A1-4D0B-8F65-9E51F85508EC}" name="Guias rebaixadas_p" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E688D975-54B8-4722-AF65-09E4511CDF12}" name="Table2478" displayName="Table2478" ref="B2:D36" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6BC30435-AB80-44B0-A6D5-8CC9C7F7CA90}" name="Table8" displayName="Table8" ref="B3:C35" totalsRowShown="0" dataDxfId="8" dataCellStyle="Normal 2">
+  <autoFilter ref="B3:C35" xr:uid="{E50CB8D0-C7B4-465A-8026-DB5D05B018CE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EBD38FC6-0BF8-49A1-AA0C-AD13FF9EB5D1}" name="Subprefeitura" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{0CBC561E-6D7D-4968-A7B5-8AA8B4683480}" name="População" dataDxfId="9" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E688D975-54B8-4722-AF65-09E4511CDF12}" name="Table2478" displayName="Table2478" ref="B2:D36" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B2:D35" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D35">
     <sortCondition ref="D2:D35"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9703C272-0820-4A8F-8092-A4B7A3144220}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A482DEDA-B413-403E-8B75-D492B14B4866}" name="População" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F7C11F3D-DA44-46B1-AF8C-ABB3E13B9542}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{9703C272-0820-4A8F-8092-A4B7A3144220}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A482DEDA-B413-403E-8B75-D492B14B4866}" name="População" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{F7C11F3D-DA44-46B1-AF8C-ABB3E13B9542}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1382,18 +2838,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1792,382 +3248,382 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>228</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>300</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>287</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>273</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>216</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>190</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>59</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>96</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>231</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>63</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>300</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>116</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>245</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>140</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>298</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>300</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>229</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>456</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>36</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>337</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <v>51</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <v>549</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
         <v>224</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
         <v>317</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="7">
         <v>299</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
         <v>150</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="7">
         <v>155</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
         <v>125</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
         <v>786</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="7">
         <v>406</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="7">
         <v>230</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="7">
         <v>155</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="7">
         <f>SUBTOTAL(109,Table2[Calçadas, guias e postes])</f>
         <v>7854</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="7">
         <f>SUBTOTAL(109,Table2[Guias rebaixadas])</f>
         <v>322</v>
       </c>
@@ -2208,41 +3664,41 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B3,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B3,Table2[Calçadas, guias e postes])</f>
         <v>135</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B3,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B3,Table2[Guias rebaixadas])</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B4,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B4,Table2[Calçadas, guias e postes])</f>
         <v>485</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B4,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B4,Table2[Guias rebaixadas])</f>
         <v>5</v>
@@ -2263,15 +3719,15 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B5,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B5,Table2[Calçadas, guias e postes])</f>
         <v>740</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B5,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B5,Table2[Guias rebaixadas])</f>
         <v>28</v>
@@ -2292,15 +3748,15 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B6,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B6,Table2[Calçadas, guias e postes])</f>
         <v>639</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B6,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B6,Table2[Guias rebaixadas])</f>
         <v>20</v>
@@ -2321,15 +3777,15 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B7,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B7,Table2[Calçadas, guias e postes])</f>
         <v>510</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B7,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B7,Table2[Guias rebaixadas])</f>
         <v>5</v>
@@ -2342,30 +3798,30 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B8,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B8,Table2[Calçadas, guias e postes])</f>
         <v>434</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B8,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B8,Table2[Guias rebaixadas])</f>
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B9,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B9,Table2[Calçadas, guias e postes])</f>
         <v>348</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B9,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B9,Table2[Guias rebaixadas])</f>
         <v>23</v>
@@ -2386,15 +3842,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B10,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B10,Table2[Calçadas, guias e postes])</f>
         <v>110</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B10,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B10,Table2[Guias rebaixadas])</f>
         <v>6</v>
@@ -2415,15 +3871,15 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B11,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B11,Table2[Calçadas, guias e postes])</f>
         <v>174</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B11,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B11,Table2[Guias rebaixadas])</f>
         <v>13</v>
@@ -2444,15 +3900,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B12,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B12,Table2[Calçadas, guias e postes])</f>
         <v>458</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B12,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B12,Table2[Guias rebaixadas])</f>
         <v>15</v>
@@ -2465,359 +3921,359 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B13,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B13,Table2[Calçadas, guias e postes])</f>
         <v>164</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B13,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B13,Table2[Guias rebaixadas])</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B14,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B14,Table2[Calçadas, guias e postes])</f>
         <v>572</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B14,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B14,Table2[Guias rebaixadas])</f>
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B15,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B15,Table2[Calçadas, guias e postes])</f>
         <v>213</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B15,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B15,Table2[Guias rebaixadas])</f>
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B16,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B16,Table2[Calçadas, guias e postes])</f>
         <v>540</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B16,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B16,Table2[Guias rebaixadas])</f>
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B17,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B17,Table2[Calçadas, guias e postes])</f>
         <v>254</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B17,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B17,Table2[Guias rebaixadas])</f>
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B18,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B18,Table2[Calçadas, guias e postes])</f>
         <v>587</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B18,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B18,Table2[Guias rebaixadas])</f>
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B19,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B19,Table2[Calçadas, guias e postes])</f>
         <v>623</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B19,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B19,Table2[Guias rebaixadas])</f>
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B20,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B20,Table2[Calçadas, guias e postes])</f>
         <v>449</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B20,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B20,Table2[Guias rebaixadas])</f>
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B21,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B21,Table2[Calçadas, guias e postes])</f>
         <v>828</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B21,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B21,Table2[Guias rebaixadas])</f>
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B22,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B22,Table2[Calçadas, guias e postes])</f>
         <v>99</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B22,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B22,Table2[Guias rebaixadas])</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B23,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B23,Table2[Calçadas, guias e postes])</f>
         <v>651</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B23,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B23,Table2[Guias rebaixadas])</f>
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B24,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B24,Table2[Calçadas, guias e postes])</f>
         <v>121</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B24,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B24,Table2[Guias rebaixadas])</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B25,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B25,Table2[Calçadas, guias e postes])</f>
         <v>1152</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B25,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B25,Table2[Guias rebaixadas])</f>
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B26,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B26,Table2[Calçadas, guias e postes])</f>
         <v>465</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B26,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B26,Table2[Guias rebaixadas])</f>
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B27,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B27,Table2[Calçadas, guias e postes])</f>
         <v>608</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B27,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B27,Table2[Guias rebaixadas])</f>
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B28,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B28,Table2[Calçadas, guias e postes])</f>
         <v>559</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B28,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B28,Table2[Guias rebaixadas])</f>
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B29,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B29,Table2[Calçadas, guias e postes])</f>
         <v>271</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B29,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B29,Table2[Guias rebaixadas])</f>
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B30,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B30,Table2[Calçadas, guias e postes])</f>
         <v>319</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B30,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B30,Table2[Guias rebaixadas])</f>
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B31,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B31,Table2[Calçadas, guias e postes])</f>
         <v>298</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B31,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B31,Table2[Guias rebaixadas])</f>
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B32,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B32,Table2[Calçadas, guias e postes])</f>
         <v>1382</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B32,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B32,Table2[Guias rebaixadas])</f>
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B33,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B33,Table2[Calçadas, guias e postes])</f>
         <v>823</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B33,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B33,Table2[Guias rebaixadas])</f>
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B34,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B34,Table2[Calçadas, guias e postes])</f>
         <v>464</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B34,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B34,Table2[Guias rebaixadas])</f>
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="7">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B35,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B35,Table2[Calçadas, guias e postes])</f>
         <v>330</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9">
         <f>SUMIF('1Sem2018'!$B$3:$B$35,B35,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B35,Table2[Guias rebaixadas])</f>
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="7">
         <f>SUBTOTAL(109,Table24[Calçadas, guias e postes])</f>
         <v>15805</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="7">
         <f>SUBTOTAL(109,Table24[Guias rebaixadas])</f>
         <v>523</v>
       </c>
@@ -2834,10 +4290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E87C82-E88C-4E0B-ACBF-F6F96205420A}">
-  <dimension ref="B2:D36"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2845,327 +4301,964 @@
     <col min="2" max="2" width="30.86328125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7">
+      <c r="C3" s="12">
+        <v>157478</v>
+      </c>
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="6" t="s">
+      <c r="E3" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.3398210718891879E-2</v>
+      </c>
+      <c r="F3" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.9267822736030828E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7">
+      <c r="C4" s="12">
+        <v>168743</v>
+      </c>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="E4" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.4356635665540407E-2</v>
+      </c>
+      <c r="F4" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.9267822736030828E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12">
+        <v>208334</v>
+      </c>
+      <c r="D5" s="9">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7">
+      <c r="E5" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.7725033540619137E-2</v>
+      </c>
+      <c r="F5" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.5048169556840076E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12">
+        <v>228281</v>
+      </c>
+      <c r="D6" s="9">
+        <v>11</v>
+      </c>
+      <c r="E6" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.9422122081302513E-2</v>
+      </c>
+      <c r="F6" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.119460500963391E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12">
+        <v>230610</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.9620273142176407E-2</v>
+      </c>
+      <c r="F7" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.1560693641618497E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12">
+        <v>230921</v>
+      </c>
+      <c r="D8" s="9">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.9646732987574338E-2</v>
+      </c>
+      <c r="F8" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.8901734104046242E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12">
+        <v>242705</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.0649314396478578E-2</v>
+      </c>
+      <c r="F9" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.348747591522158E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12">
+        <v>244053</v>
+      </c>
+      <c r="D10" s="9">
+        <v>52</v>
+      </c>
+      <c r="E10" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.076400208649919E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>0.1001926782273603</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12">
+        <v>247603</v>
+      </c>
+      <c r="D11" s="9">
+        <v>7</v>
+      </c>
+      <c r="E11" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.1066035691523804E-2</v>
+      </c>
+      <c r="F11" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.348747591522158E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>265543</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.2592368895507347E-2</v>
+      </c>
+      <c r="F12" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>9.6339113680154135E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13">
+        <v>280851</v>
+      </c>
+      <c r="D13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="5" t="s">
+      <c r="E13" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.3894771832328979E-2</v>
+      </c>
+      <c r="F13" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.9267822736030828E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12">
+        <v>288801</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
+      <c r="E14" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.4571156947806636E-2</v>
+      </c>
+      <c r="F14" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>7.7071290944123313E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="12">
+        <v>294946</v>
+      </c>
+      <c r="D15" s="9">
+        <v>48</v>
+      </c>
+      <c r="E15" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.5093972864109807E-2</v>
+      </c>
+      <c r="F15" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>9.2485549132947972E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12">
+        <v>311264</v>
+      </c>
+      <c r="D16" s="9">
+        <v>12</v>
+      </c>
+      <c r="E16" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.648230648855816E-2</v>
+      </c>
+      <c r="F16" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.3121387283236993E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12">
+        <v>320091</v>
+      </c>
+      <c r="D17" s="9">
+        <v>14</v>
+      </c>
+      <c r="E17" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.7233306666460205E-2</v>
+      </c>
+      <c r="F17" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.6974951830443159E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12">
+        <v>325052</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8</v>
+      </c>
+      <c r="E18" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.7655387994496013E-2</v>
+      </c>
+      <c r="F18" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.5414258188824663E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12">
+        <v>354266</v>
+      </c>
+      <c r="D19" s="9">
+        <v>36</v>
+      </c>
+      <c r="E19" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.0140911864126738E-2</v>
+      </c>
+      <c r="F19" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>6.9364161849710976E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12">
+        <v>357773</v>
+      </c>
+      <c r="D20" s="9">
+        <v>34</v>
+      </c>
+      <c r="E20" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.0439287033935562E-2</v>
+      </c>
+      <c r="F20" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>6.5510597302504817E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12">
+        <v>385051</v>
+      </c>
+      <c r="D21" s="9">
+        <v>6</v>
+      </c>
+      <c r="E21" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.2760096238966946E-2</v>
+      </c>
+      <c r="F21" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.1560693641618497E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="12">
+        <v>419142</v>
+      </c>
+      <c r="D22" s="9">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.5660554725979371E-2</v>
+      </c>
+      <c r="F22" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.8901734104046242E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>439912</v>
+      </c>
+      <c r="D23" s="9">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.7427664015095216E-2</v>
+      </c>
+      <c r="F23" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>4.4315992292870907E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12">
+        <v>454048</v>
+      </c>
+      <c r="D24" s="9">
+        <v>28</v>
+      </c>
+      <c r="E24" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.8630353322314355E-2</v>
+      </c>
+      <c r="F24" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>5.3949903660886318E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="12">
+        <v>455427</v>
+      </c>
+      <c r="D25" s="9">
+        <v>36</v>
+      </c>
+      <c r="E25" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.8747678488885884E-2</v>
+      </c>
+      <c r="F25" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>6.9364161849710976E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="12">
+        <v>457122</v>
+      </c>
+      <c r="D26" s="9">
+        <v>9</v>
+      </c>
+      <c r="E26" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.889188890029905E-2</v>
+      </c>
+      <c r="F26" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.7341040462427744E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12">
+        <v>473549</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8</v>
+      </c>
+      <c r="E27" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.0289496232619987E-2</v>
+      </c>
+      <c r="F27" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.5414258188824663E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12">
+        <v>484995</v>
+      </c>
+      <c r="D28" s="9">
+        <v>19</v>
+      </c>
+      <c r="E28" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.1263320639130331E-2</v>
+      </c>
+      <c r="F28" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>3.6608863198458574E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12">
+        <v>492612</v>
+      </c>
+      <c r="D29" s="9">
+        <v>29</v>
+      </c>
+      <c r="E29" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.1911374151657792E-2</v>
+      </c>
+      <c r="F29" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>5.5876685934489405E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="12">
+        <v>503164</v>
+      </c>
+      <c r="D30" s="9">
+        <v>28</v>
+      </c>
+      <c r="E30" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.2809137137635185E-2</v>
+      </c>
+      <c r="F30" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>5.3949903660886318E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="12">
+        <v>549220</v>
+      </c>
+      <c r="D31" s="9">
+        <v>11</v>
+      </c>
+      <c r="E31" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.6727576493413671E-2</v>
+      </c>
+      <c r="F31" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.119460500963391E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="12">
+        <v>586649</v>
+      </c>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
+      <c r="E32" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.9912031649037972E-2</v>
+      </c>
+      <c r="F32" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.348747591522158E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="12">
+        <v>622021</v>
+      </c>
+      <c r="D33" s="9">
+        <v>5</v>
+      </c>
+      <c r="E33" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>5.2921477473525477E-2</v>
+      </c>
+      <c r="F33" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>9.6339113680154135E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="12">
+        <v>673432</v>
+      </c>
+      <c r="D34" s="9">
+        <v>20</v>
+      </c>
+      <c r="E34" s="16">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>5.7295519633503066E-2</v>
+      </c>
+      <c r="F34" s="16">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>3.8535645472061654E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="7">
+        <f>SUBTOTAL(109,Table247[População])</f>
+        <v>11753659</v>
+      </c>
+      <c r="D35" s="7">
+        <f>SUBTOTAL(109,Table247[Guias rebaixadas])</f>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7">
+      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+      <c r="D38" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
+      <c r="E38" s="2" t="e">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" s="3" t="e">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11DA708-E3DA-4CDA-B7C1-D6F9D1198CF4}">
+  <dimension ref="B1:C35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7">
+      <c r="C23" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7">
+      <c r="C28" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="6" t="s">
+      <c r="C29" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="6" t="s">
+      <c r="C31" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7">
+      <c r="C34" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="5">
-        <f>SUBTOTAL(109,Table247[População])</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="5">
-        <f>SUBTOTAL(109,Table247[Guias rebaixadas])</f>
-        <v>523</v>
+      <c r="C35" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3176,7 +5269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFF2DEE-706E-481E-A00D-22FE1731B555}">
   <dimension ref="B2:D36"/>
   <sheetViews>
@@ -3192,322 +5285,322 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7">
+      <c r="C3" s="7"/>
+      <c r="D3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7">
+      <c r="C4" s="7"/>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7">
+      <c r="C5" s="7"/>
+      <c r="D5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7">
+      <c r="C6" s="7"/>
+      <c r="D6" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7">
+      <c r="C7" s="7"/>
+      <c r="D7" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7">
+      <c r="C8" s="7"/>
+      <c r="D8" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7">
+      <c r="C9" s="7"/>
+      <c r="D9" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7">
+      <c r="C10" s="7"/>
+      <c r="D10" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7">
+      <c r="C11" s="7"/>
+      <c r="D11" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7">
+      <c r="C12" s="7"/>
+      <c r="D12" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7">
+      <c r="C13" s="7"/>
+      <c r="D13" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7">
+      <c r="C14" s="7"/>
+      <c r="D14" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7">
+      <c r="C15" s="7"/>
+      <c r="D15" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7">
+      <c r="C16" s="7"/>
+      <c r="D16" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7">
+      <c r="C17" s="7"/>
+      <c r="D17" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7">
+      <c r="C18" s="7"/>
+      <c r="D18" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7">
+      <c r="C19" s="7"/>
+      <c r="D19" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7">
+      <c r="C20" s="7"/>
+      <c r="D20" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7">
+      <c r="C21" s="7"/>
+      <c r="D21" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7">
+      <c r="C22" s="7"/>
+      <c r="D22" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7">
+      <c r="C23" s="7"/>
+      <c r="D23" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7">
+      <c r="C24" s="7"/>
+      <c r="D24" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7">
+      <c r="C25" s="7"/>
+      <c r="D25" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7">
+      <c r="C26" s="7"/>
+      <c r="D26" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7">
+      <c r="C27" s="7"/>
+      <c r="D27" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7">
+      <c r="C28" s="7"/>
+      <c r="D28" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7">
+      <c r="C29" s="7"/>
+      <c r="D29" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7">
+      <c r="C30" s="7"/>
+      <c r="D30" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="7">
+      <c r="C31" s="7"/>
+      <c r="D31" s="9">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="7">
+      <c r="C32" s="7"/>
+      <c r="D32" s="9">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7">
+      <c r="C33" s="7"/>
+      <c r="D33" s="9">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="7">
+      <c r="C34" s="7"/>
+      <c r="D34" s="9">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7">
+      <c r="C35" s="7"/>
+      <c r="D35" s="9">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="7">
         <f>SUBTOTAL(109,Table2478[População])</f>
         <v>0</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="7">
         <f>SUBTOTAL(109,Table2478[Guias rebaixadas])</f>
         <v>523</v>
       </c>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\sidewalk_service_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD1E666-9DBA-47A7-9421-4B36BAA21BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C0FD1-9744-4EA3-9ECB-4AAB56A8EE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" activeTab="3" xr2:uid="{F20C68B3-3D5D-4528-A90E-249FF6CBE367}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" firstSheet="1" activeTab="5" xr2:uid="{F20C68B3-3D5D-4528-A90E-249FF6CBE367}"/>
   </bookViews>
   <sheets>
     <sheet name="1Sem2018" sheetId="2" r:id="rId1"/>
     <sheet name="2Sem2018" sheetId="1" r:id="rId2"/>
     <sheet name="Ano2018" sheetId="3" r:id="rId3"/>
-    <sheet name="Ranking-Calcadas" sheetId="4" r:id="rId4"/>
-    <sheet name="Populacao" sheetId="6" r:id="rId5"/>
-    <sheet name="Ranking Guias rebaixadas" sheetId="5" r:id="rId6"/>
+    <sheet name="Populacao" sheetId="6" r:id="rId4"/>
+    <sheet name="Ranking-Calcadas" sheetId="7" r:id="rId5"/>
+    <sheet name="Ranking-Guias rebaixadas" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
   <si>
     <t>Subprefeitura</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>As percentages</t>
+  </si>
+  <si>
+    <t>Calcadas</t>
+  </si>
+  <si>
+    <t>Guias Calcadas_p</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -423,7 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -435,236 +440,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C63152D7-1AA0-4E9A-BFBA-49C0C0691B92}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <b val="0"/>
@@ -770,6 +546,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -792,7 +606,123 @@
       </font>
       <fill>
         <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -834,6 +764,122 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1284,6 +1330,584 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Tickets Calçadas x População</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ranking-Calcadas'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>População_p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$E$3:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.3398210718891879E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4356635665540407E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7725033540619137E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9422122081302513E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9620273142176407E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9646732987574338E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0649314396478578E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.076400208649919E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1066035691523804E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2592368895507347E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3894771832328979E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4571156947806636E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5093972864109807E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.648230648855816E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7233306666460205E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7655387994496013E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0140911864126738E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0439287033935562E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2760096238966946E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5660554725979371E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7427664015095216E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8630353322314355E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8747678488885884E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.889188890029905E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0289496232619987E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1263320639130331E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1911374151657792E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2809137137635185E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6727576493413671E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9912031649037972E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2921477473525477E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.7295519633503066E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA0D-4B96-9CB1-932D846F79D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ranking-Calcadas'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Guias Calcadas_p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$F$3:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>6.3178047223994898E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7217613273771538E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1104020421186982E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6209317166560305E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0197830248883214E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8653477983407786E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7460114869176768E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5673261008296105E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1059349074664963E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0950861518825781E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0465858328015316E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9017230376515634E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2520740268028082E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7696234843650289E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8800255264837269E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0357370772176132E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9610721123165283E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2839821314613913E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3592852584556477E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9227823867262286E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2208040842373964E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7223994894703254E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.819400127632418E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7294192724952136E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1544352265475433E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6502871729419274E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.3516273133375873E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.975749840459477E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4460753031269942E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9674537332482452E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2546266751754947E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0778557753669432E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA0D-4B96-9CB1-932D846F79D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1231101567"/>
+        <c:axId val="1237437007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1231101567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1237437007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1237437007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231101567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Guias</a:t>
             </a:r>
@@ -1335,7 +1959,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ranking-Calcadas'!$E$2</c:f>
+              <c:f>'Ranking-Guias rebaixadas'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1370,7 +1994,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Ranking-Calcadas'!$E$3:$E$34</c:f>
+              <c:f>'Ranking-Guias rebaixadas'!$E$3:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1485,7 +2109,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ranking-Calcadas'!$F$2</c:f>
+              <c:f>'Ranking-Guias rebaixadas'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1520,7 +2144,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Ranking-Calcadas'!$F$3:$F$34</c:f>
+              <c:f>'Ranking-Guias rebaixadas'!$F$3:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1833,6 +2457,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2375,7 +3039,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>135730</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173830</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D5E62A-F51A-4B9E-A52B-3657F8C5A0B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2417,10 +3627,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77AF48A9-7393-4472-BEF2-39B89A58BF93}" name="Table1" displayName="Table1" ref="B2:D36" totalsRowCount="1" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77AF48A9-7393-4472-BEF2-39B89A58BF93}" name="Table1" displayName="Table1" ref="B2:D36" totalsRowCount="1" headerRowDxfId="40">
   <autoFilter ref="B2:D35" xr:uid="{357B1428-2086-456B-8B30-E6E242BCE77D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BEA5ACF0-C4BB-424B-9A3D-91F100691024}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{BEA5ACF0-C4BB-424B-9A3D-91F100691024}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="26"/>
     <tableColumn id="2" xr3:uid="{52992C78-2935-436C-81F0-30BCA439A3EE}" name="Calçadas, guias e postes" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{D332F945-37BA-46D0-9287-CDE8D0903E18}" name="Guias rebaixadas" totalsRowFunction="sum"/>
   </tableColumns>
@@ -2429,27 +3639,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1431F7D6-8C98-44A9-ADA0-D98C55143BF6}" name="Table2" displayName="Table2" ref="B2:D36" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1431F7D6-8C98-44A9-ADA0-D98C55143BF6}" name="Table2" displayName="Table2" ref="B2:D36" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="B2:D35" xr:uid="{E998A03B-CCDB-485F-80E0-6B70C5CA9314}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{766633CC-ED06-439F-A1EC-73AB1031A63A}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{C3D81166-EA6A-401C-B345-C228E6A665C5}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{28ECA203-FD33-4A62-A721-2FF06A780280}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{766633CC-ED06-439F-A1EC-73AB1031A63A}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{C3D81166-EA6A-401C-B345-C228E6A665C5}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{28ECA203-FD33-4A62-A721-2FF06A780280}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B8BB3E0-1B4D-42F9-813D-EFE1A36C6E77}" name="Table24" displayName="Table24" ref="B2:D36" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B8BB3E0-1B4D-42F9-813D-EFE1A36C6E77}" name="Table24" displayName="Table24" ref="B2:D36" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B2:D35" xr:uid="{518F44FB-9DBC-41D5-8114-3D9EF86FCEB1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DCB3581C-0F45-4CF2-932F-F6CAD9D2838B}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{6BB4E364-3ECA-4D4C-BEB7-03083F1E4B09}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="22">
+    <tableColumn id="1" xr3:uid="{DCB3581C-0F45-4CF2-932F-F6CAD9D2838B}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6BB4E364-3ECA-4D4C-BEB7-03083F1E4B09}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="24">
       <calculatedColumnFormula>SUMIF('1Sem2018'!$B$3:$B$35,B3,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B3,Table2[Calçadas, guias e postes])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6314B22A-9730-496E-90C1-72EF5F0F84DB}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="21">
+    <tableColumn id="3" xr3:uid="{6314B22A-9730-496E-90C1-72EF5F0F84DB}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="23">
       <calculatedColumnFormula>SUMIF('1Sem2018'!$B$3:$B$35,B3,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B3,Table2[Guias rebaixadas])</calculatedColumnFormula>
     </tableColumn>
@@ -2481,47 +3691,53 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC5431D6-A07F-4750-9E81-D044B212416E}" name="Table247" displayName="Table247" ref="B2:F35" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B2:F34" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F34">
-    <sortCondition ref="C2:C34"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AD5B0124-F4F5-41C4-BBED-8BB815ABA9B4}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{7E0A9D30-E148-4D46-8C91-26143F699A25}" name="População" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{61E4DFDB-5771-4DFF-8604-5CC5A3E13AD9}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{7323760F-6051-43E4-B056-878D4095FF1D}" name="População_p" dataDxfId="1" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{B00A9779-43A1-4D0B-8F65-9E51F85508EC}" name="Guias rebaixadas_p" dataDxfId="0" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6BC30435-AB80-44B0-A6D5-8CC9C7F7CA90}" name="Table8" displayName="Table8" ref="B3:C35" totalsRowShown="0" dataDxfId="18" dataCellStyle="Normal 2">
+  <autoFilter ref="B3:C35" xr:uid="{E50CB8D0-C7B4-465A-8026-DB5D05B018CE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EBD38FC6-0BF8-49A1-AA0C-AD13FF9EB5D1}" name="Subprefeitura" dataDxfId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{0CBC561E-6D7D-4968-A7B5-8AA8B4683480}" name="População" dataDxfId="19" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6BC30435-AB80-44B0-A6D5-8CC9C7F7CA90}" name="Table8" displayName="Table8" ref="B3:C35" totalsRowShown="0" dataDxfId="8" dataCellStyle="Normal 2">
-  <autoFilter ref="B3:C35" xr:uid="{E50CB8D0-C7B4-465A-8026-DB5D05B018CE}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EBD38FC6-0BF8-49A1-AA0C-AD13FF9EB5D1}" name="Subprefeitura" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{0CBC561E-6D7D-4968-A7B5-8AA8B4683480}" name="População" dataDxfId="9" dataCellStyle="Normal 2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F2B0CD1E-DEF9-4248-960B-28C462B9B5D7}" name="Table24710" displayName="Table24710" ref="B2:F35" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B2:F34" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F34">
+    <sortCondition ref="E2:E34"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{77065C45-E47A-4718-B3FC-8C0408688203}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6AB01A93-D513-4E10-B3D7-F275C077E890}" name="População" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C564EF7C-C466-41DA-873A-E94AD0E8796E}" name="Calcadas" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{51D7C82A-B4E4-400C-A121-F55450DE6719}" name="População_p" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5788A7C8-0BB3-439E-BA69-2A3D20348304}" name="Guias Calcadas_p" dataDxfId="3" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E688D975-54B8-4722-AF65-09E4511CDF12}" name="Table2478" displayName="Table2478" ref="B2:D36" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="B2:D35" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D35">
-    <sortCondition ref="D2:D35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC5431D6-A07F-4750-9E81-D044B212416E}" name="Table247" displayName="Table247" ref="B2:F35" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="B2:F34" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F34">
+    <sortCondition ref="E2:E34"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9703C272-0820-4A8F-8092-A4B7A3144220}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{A482DEDA-B413-403E-8B75-D492B14B4866}" name="População" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{F7C11F3D-DA44-46B1-AF8C-ABB3E13B9542}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AD5B0124-F4F5-41C4-BBED-8BB815ABA9B4}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7E0A9D30-E148-4D46-8C91-26143F699A25}" name="População" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{61E4DFDB-5771-4DFF-8604-5CC5A3E13AD9}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7323760F-6051-43E4-B056-878D4095FF1D}" name="População_p" dataDxfId="16" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B00A9779-43A1-4D0B-8F65-9E51F85508EC}" name="Guias rebaixadas_p" dataDxfId="15" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3641,7 +4857,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="B2:D36"/>
+      <selection activeCell="C35" sqref="C4:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4289,693 +5505,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E87C82-E88C-4E0B-ACBF-F6F96205420A}">
-  <dimension ref="B1:F38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="30.86328125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
-    <col min="5" max="5" width="15.53125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="12">
-        <v>157478</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>1.3398210718891879E-2</v>
-      </c>
-      <c r="F3" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.9267822736030828E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12">
-        <v>168743</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>1.4356635665540407E-2</v>
-      </c>
-      <c r="F4" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.9267822736030828E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="12">
-        <v>208334</v>
-      </c>
-      <c r="D5" s="9">
-        <v>13</v>
-      </c>
-      <c r="E5" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>1.7725033540619137E-2</v>
-      </c>
-      <c r="F5" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>2.5048169556840076E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12">
-        <v>228281</v>
-      </c>
-      <c r="D6" s="9">
-        <v>11</v>
-      </c>
-      <c r="E6" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>1.9422122081302513E-2</v>
-      </c>
-      <c r="F6" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>2.119460500963391E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12">
-        <v>230610</v>
-      </c>
-      <c r="D7" s="9">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>1.9620273142176407E-2</v>
-      </c>
-      <c r="F7" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.1560693641618497E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12">
-        <v>230921</v>
-      </c>
-      <c r="D8" s="9">
-        <v>15</v>
-      </c>
-      <c r="E8" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>1.9646732987574338E-2</v>
-      </c>
-      <c r="F8" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>2.8901734104046242E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="12">
-        <v>242705</v>
-      </c>
-      <c r="D9" s="9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.0649314396478578E-2</v>
-      </c>
-      <c r="F9" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.348747591522158E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="12">
-        <v>244053</v>
-      </c>
-      <c r="D10" s="9">
-        <v>52</v>
-      </c>
-      <c r="E10" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.076400208649919E-2</v>
-      </c>
-      <c r="F10" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>0.1001926782273603</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12">
-        <v>247603</v>
-      </c>
-      <c r="D11" s="9">
-        <v>7</v>
-      </c>
-      <c r="E11" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.1066035691523804E-2</v>
-      </c>
-      <c r="F11" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.348747591522158E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="12">
-        <v>265543</v>
-      </c>
-      <c r="D12" s="9">
-        <v>5</v>
-      </c>
-      <c r="E12" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.2592368895507347E-2</v>
-      </c>
-      <c r="F12" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>9.6339113680154135E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13">
-        <v>280851</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.3894771832328979E-2</v>
-      </c>
-      <c r="F13" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.9267822736030828E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="12">
-        <v>288801</v>
-      </c>
-      <c r="D14" s="9">
-        <v>4</v>
-      </c>
-      <c r="E14" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.4571156947806636E-2</v>
-      </c>
-      <c r="F14" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>7.7071290944123313E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12">
-        <v>294946</v>
-      </c>
-      <c r="D15" s="9">
-        <v>48</v>
-      </c>
-      <c r="E15" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.5093972864109807E-2</v>
-      </c>
-      <c r="F15" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>9.2485549132947972E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="12">
-        <v>311264</v>
-      </c>
-      <c r="D16" s="9">
-        <v>12</v>
-      </c>
-      <c r="E16" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.648230648855816E-2</v>
-      </c>
-      <c r="F16" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>2.3121387283236993E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="12">
-        <v>320091</v>
-      </c>
-      <c r="D17" s="9">
-        <v>14</v>
-      </c>
-      <c r="E17" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.7233306666460205E-2</v>
-      </c>
-      <c r="F17" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>2.6974951830443159E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="12">
-        <v>325052</v>
-      </c>
-      <c r="D18" s="9">
-        <v>8</v>
-      </c>
-      <c r="E18" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>2.7655387994496013E-2</v>
-      </c>
-      <c r="F18" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.5414258188824663E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="12">
-        <v>354266</v>
-      </c>
-      <c r="D19" s="9">
-        <v>36</v>
-      </c>
-      <c r="E19" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>3.0140911864126738E-2</v>
-      </c>
-      <c r="F19" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>6.9364161849710976E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="12">
-        <v>357773</v>
-      </c>
-      <c r="D20" s="9">
-        <v>34</v>
-      </c>
-      <c r="E20" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>3.0439287033935562E-2</v>
-      </c>
-      <c r="F20" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>6.5510597302504817E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="12">
-        <v>385051</v>
-      </c>
-      <c r="D21" s="9">
-        <v>6</v>
-      </c>
-      <c r="E21" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>3.2760096238966946E-2</v>
-      </c>
-      <c r="F21" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.1560693641618497E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="12">
-        <v>419142</v>
-      </c>
-      <c r="D22" s="9">
-        <v>15</v>
-      </c>
-      <c r="E22" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>3.5660554725979371E-2</v>
-      </c>
-      <c r="F22" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>2.8901734104046242E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12">
-        <v>439912</v>
-      </c>
-      <c r="D23" s="9">
-        <v>23</v>
-      </c>
-      <c r="E23" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>3.7427664015095216E-2</v>
-      </c>
-      <c r="F23" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>4.4315992292870907E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12">
-        <v>454048</v>
-      </c>
-      <c r="D24" s="9">
-        <v>28</v>
-      </c>
-      <c r="E24" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>3.8630353322314355E-2</v>
-      </c>
-      <c r="F24" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>5.3949903660886318E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="12">
-        <v>455427</v>
-      </c>
-      <c r="D25" s="9">
-        <v>36</v>
-      </c>
-      <c r="E25" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>3.8747678488885884E-2</v>
-      </c>
-      <c r="F25" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>6.9364161849710976E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="12">
-        <v>457122</v>
-      </c>
-      <c r="D26" s="9">
-        <v>9</v>
-      </c>
-      <c r="E26" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>3.889188890029905E-2</v>
-      </c>
-      <c r="F26" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.7341040462427744E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="12">
-        <v>473549</v>
-      </c>
-      <c r="D27" s="9">
-        <v>8</v>
-      </c>
-      <c r="E27" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>4.0289496232619987E-2</v>
-      </c>
-      <c r="F27" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.5414258188824663E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12">
-        <v>484995</v>
-      </c>
-      <c r="D28" s="9">
-        <v>19</v>
-      </c>
-      <c r="E28" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>4.1263320639130331E-2</v>
-      </c>
-      <c r="F28" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>3.6608863198458574E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="12">
-        <v>492612</v>
-      </c>
-      <c r="D29" s="9">
-        <v>29</v>
-      </c>
-      <c r="E29" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>4.1911374151657792E-2</v>
-      </c>
-      <c r="F29" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>5.5876685934489405E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="12">
-        <v>503164</v>
-      </c>
-      <c r="D30" s="9">
-        <v>28</v>
-      </c>
-      <c r="E30" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>4.2809137137635185E-2</v>
-      </c>
-      <c r="F30" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>5.3949903660886318E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="12">
-        <v>549220</v>
-      </c>
-      <c r="D31" s="9">
-        <v>11</v>
-      </c>
-      <c r="E31" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>4.6727576493413671E-2</v>
-      </c>
-      <c r="F31" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>2.119460500963391E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="12">
-        <v>586649</v>
-      </c>
-      <c r="D32" s="9">
-        <v>7</v>
-      </c>
-      <c r="E32" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>4.9912031649037972E-2</v>
-      </c>
-      <c r="F32" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>1.348747591522158E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="12">
-        <v>622021</v>
-      </c>
-      <c r="D33" s="9">
-        <v>5</v>
-      </c>
-      <c r="E33" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>5.2921477473525477E-2</v>
-      </c>
-      <c r="F33" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>9.6339113680154135E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="12">
-        <v>673432</v>
-      </c>
-      <c r="D34" s="9">
-        <v>20</v>
-      </c>
-      <c r="E34" s="16">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>5.7295519633503066E-2</v>
-      </c>
-      <c r="F34" s="16">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>3.8535645472061654E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="7">
-        <f>SUBTOTAL(109,Table247[População])</f>
-        <v>11753659</v>
-      </c>
-      <c r="D35" s="7">
-        <f>SUBTOTAL(109,Table247[Guias rebaixadas])</f>
-        <v>519</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B38" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="14">
-        <v>0</v>
-      </c>
-      <c r="D38" s="15">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2" t="e">
-        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="3" t="e">
-        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11DA708-E3DA-4CDA-B7C1-D6F9D1198CF4}">
   <dimension ref="B1:C35"/>
   <sheetViews>
@@ -5269,22 +5798,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFF2DEE-706E-481E-A00D-22FE1731B555}">
-  <dimension ref="B2:D36"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54177035-4056-472F-BD13-EF14A013B065}">
+  <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="2" max="2" width="30.86328125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -5292,323 +5827,1351 @@
         <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="12">
+        <v>157478</v>
+      </c>
+      <c r="D3" s="9">
+        <v>99</v>
+      </c>
+      <c r="E3" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>1.3398210718891879E-2</v>
+      </c>
+      <c r="F3" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>6.3178047223994898E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12">
+        <v>168743</v>
+      </c>
+      <c r="D4" s="9">
+        <v>121</v>
+      </c>
+      <c r="E4" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>1.4356635665540407E-2</v>
+      </c>
+      <c r="F4" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>7.7217613273771538E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12">
+        <v>208334</v>
+      </c>
+      <c r="D5" s="9">
+        <v>174</v>
+      </c>
+      <c r="E5" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>1.7725033540619137E-2</v>
+      </c>
+      <c r="F5" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.1104020421186982E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12">
+        <v>228281</v>
+      </c>
+      <c r="D6" s="9">
+        <v>254</v>
+      </c>
+      <c r="E6" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>1.9422122081302513E-2</v>
+      </c>
+      <c r="F6" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.6209317166560305E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12">
+        <v>230610</v>
+      </c>
+      <c r="D7" s="9">
+        <v>110</v>
+      </c>
+      <c r="E7" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>1.9620273142176407E-2</v>
+      </c>
+      <c r="F7" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>7.0197830248883214E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12">
+        <v>230921</v>
+      </c>
+      <c r="D8" s="9">
+        <v>449</v>
+      </c>
+      <c r="E8" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>1.9646732987574338E-2</v>
+      </c>
+      <c r="F8" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.8653477983407786E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12">
+        <v>242705</v>
+      </c>
+      <c r="D9" s="9">
+        <v>587</v>
+      </c>
+      <c r="E9" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.0649314396478578E-2</v>
+      </c>
+      <c r="F9" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.7460114869176768E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12">
+        <v>244053</v>
+      </c>
+      <c r="D10" s="9">
+        <v>559</v>
+      </c>
+      <c r="E10" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.076400208649919E-2</v>
+      </c>
+      <c r="F10" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.5673261008296105E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12">
+        <v>247603</v>
+      </c>
+      <c r="D11" s="9">
+        <v>330</v>
+      </c>
+      <c r="E11" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.1066035691523804E-2</v>
+      </c>
+      <c r="F11" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.1059349074664963E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>265543</v>
+      </c>
+      <c r="D12" s="9">
+        <v>485</v>
+      </c>
+      <c r="E12" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.2592368895507347E-2</v>
+      </c>
+      <c r="F12" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.0950861518825781E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
+        <v>280851</v>
+      </c>
+      <c r="D13" s="9">
+        <v>164</v>
+      </c>
+      <c r="E13" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.3894771832328979E-2</v>
+      </c>
+      <c r="F13" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.0465858328015316E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12">
+        <v>288801</v>
+      </c>
+      <c r="D14" s="9">
+        <v>298</v>
+      </c>
+      <c r="E14" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.4571156947806636E-2</v>
+      </c>
+      <c r="F14" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.9017230376515634E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="12">
+        <v>294946</v>
+      </c>
+      <c r="D15" s="9">
+        <v>823</v>
+      </c>
+      <c r="E15" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.5093972864109807E-2</v>
+      </c>
+      <c r="F15" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>5.2520740268028082E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12">
+        <v>311264</v>
+      </c>
+      <c r="D16" s="9">
+        <v>434</v>
+      </c>
+      <c r="E16" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.648230648855816E-2</v>
+      </c>
+      <c r="F16" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.7696234843650289E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12">
+        <v>320091</v>
+      </c>
+      <c r="D17" s="9">
+        <v>608</v>
+      </c>
+      <c r="E17" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.7233306666460205E-2</v>
+      </c>
+      <c r="F17" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.8800255264837269E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12">
+        <v>325052</v>
+      </c>
+      <c r="D18" s="9">
+        <v>319</v>
+      </c>
+      <c r="E18" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.7655387994496013E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.0357370772176132E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12">
+        <v>354266</v>
+      </c>
+      <c r="D19" s="9">
+        <v>464</v>
+      </c>
+      <c r="E19" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.0140911864126738E-2</v>
+      </c>
+      <c r="F19" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.9610721123165283E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12">
+        <v>357773</v>
+      </c>
+      <c r="D20" s="9">
+        <v>828</v>
+      </c>
+      <c r="E20" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.0439287033935562E-2</v>
+      </c>
+      <c r="F20" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>5.2839821314613913E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12">
+        <v>385051</v>
+      </c>
+      <c r="D21" s="9">
+        <v>213</v>
+      </c>
+      <c r="E21" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.2760096238966946E-2</v>
+      </c>
+      <c r="F21" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.3592852584556477E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="12">
+        <v>419142</v>
+      </c>
+      <c r="D22" s="9">
+        <v>458</v>
+      </c>
+      <c r="E22" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.5660554725979371E-2</v>
+      </c>
+      <c r="F22" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.9227823867262286E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>439912</v>
+      </c>
+      <c r="D23" s="9">
+        <v>348</v>
+      </c>
+      <c r="E23" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.7427664015095216E-2</v>
+      </c>
+      <c r="F23" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.2208040842373964E-2</v>
+      </c>
+      <c r="H23">
+        <f>LINEST(Table24710[Guias Calcadas_p],Table24710[População_p],TRUE,TRUE)</f>
+        <v>0.72944509508094502</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12">
+        <v>454048</v>
+      </c>
+      <c r="D24" s="9">
+        <v>740</v>
+      </c>
+      <c r="E24" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.8630353322314355E-2</v>
+      </c>
+      <c r="F24" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>4.7223994894703254E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="12">
+        <v>455427</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1382</v>
+      </c>
+      <c r="E25" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.8747678488885884E-2</v>
+      </c>
+      <c r="F25" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>8.819400127632418E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="12">
+        <v>457122</v>
+      </c>
+      <c r="D26" s="9">
+        <v>271</v>
+      </c>
+      <c r="E26" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.889188890029905E-2</v>
+      </c>
+      <c r="F26" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.7294192724952136E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12">
+        <v>473549</v>
+      </c>
+      <c r="D27" s="9">
+        <v>651</v>
+      </c>
+      <c r="E27" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.0289496232619987E-2</v>
+      </c>
+      <c r="F27" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>4.1544352265475433E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12">
+        <v>484995</v>
+      </c>
+      <c r="D28" s="9">
+        <v>572</v>
+      </c>
+      <c r="E28" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.1263320639130331E-2</v>
+      </c>
+      <c r="F28" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.6502871729419274E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12">
+        <v>492612</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1152</v>
+      </c>
+      <c r="E29" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.1911374151657792E-2</v>
+      </c>
+      <c r="F29" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>7.3516273133375873E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="12">
+        <v>503164</v>
+      </c>
+      <c r="D30" s="9">
+        <v>623</v>
+      </c>
+      <c r="E30" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.2809137137635185E-2</v>
+      </c>
+      <c r="F30" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.975749840459477E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="12">
+        <v>549220</v>
+      </c>
+      <c r="D31" s="9">
+        <v>540</v>
+      </c>
+      <c r="E31" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.6727576493413671E-2</v>
+      </c>
+      <c r="F31" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.4460753031269942E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="12">
+        <v>586649</v>
+      </c>
+      <c r="D32" s="9">
+        <v>465</v>
+      </c>
+      <c r="E32" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.9912031649037972E-2</v>
+      </c>
+      <c r="F32" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.9674537332482452E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="12">
+        <v>622021</v>
+      </c>
+      <c r="D33" s="9">
+        <v>510</v>
+      </c>
+      <c r="E33" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>5.2921477473525477E-2</v>
+      </c>
+      <c r="F33" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.2546266751754947E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="12">
+        <v>673432</v>
+      </c>
+      <c r="D34" s="9">
+        <v>639</v>
+      </c>
+      <c r="E34" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>5.7295519633503066E-2</v>
+      </c>
+      <c r="F34" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>4.0778557753669432E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="7">
+        <f>SUBTOTAL(109,Table24710[População])</f>
+        <v>11753659</v>
+      </c>
+      <c r="D35" s="7">
+        <f>SUBTOTAL(109,Table24710[Calcadas])</f>
+        <v>15670</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="e">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" s="3" t="e">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E87C82-E88C-4E0B-ACBF-F6F96205420A}">
+  <dimension ref="B1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="30.86328125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12">
+        <v>157478</v>
+      </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.3398210718891879E-2</v>
+      </c>
+      <c r="F3" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.9267822736030828E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="12">
+        <v>168743</v>
+      </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.4356635665540407E-2</v>
+      </c>
+      <c r="F4" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.9267822736030828E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12">
+        <v>208334</v>
+      </c>
+      <c r="D5" s="9">
         <v>13</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9">
+      <c r="E5" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.7725033540619137E-2</v>
+      </c>
+      <c r="F5" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.5048169556840076E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12">
+        <v>228281</v>
+      </c>
+      <c r="D6" s="9">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.9422122081302513E-2</v>
+      </c>
+      <c r="F6" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.119460500963391E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12">
+        <v>230610</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.9620273142176407E-2</v>
+      </c>
+      <c r="F7" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.1560693641618497E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12">
+        <v>230921</v>
+      </c>
+      <c r="D8" s="9">
+        <v>15</v>
+      </c>
+      <c r="E8" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>1.9646732987574338E-2</v>
+      </c>
+      <c r="F8" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.8901734104046242E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12">
+        <v>242705</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.0649314396478578E-2</v>
+      </c>
+      <c r="F9" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.348747591522158E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12">
+        <v>244053</v>
+      </c>
+      <c r="D10" s="9">
+        <v>52</v>
+      </c>
+      <c r="E10" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.076400208649919E-2</v>
+      </c>
+      <c r="F10" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>0.1001926782273603</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12">
+        <v>247603</v>
+      </c>
+      <c r="D11" s="9">
+        <v>7</v>
+      </c>
+      <c r="E11" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.1066035691523804E-2</v>
+      </c>
+      <c r="F11" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.348747591522158E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>265543</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.2592368895507347E-2</v>
+      </c>
+      <c r="F12" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>9.6339113680154135E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
+        <v>280851</v>
+      </c>
+      <c r="D13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="7" t="s">
+      <c r="E13" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.3894771832328979E-2</v>
+      </c>
+      <c r="F13" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.9267822736030828E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12">
+        <v>288801</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
+      <c r="E14" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.4571156947806636E-2</v>
+      </c>
+      <c r="F14" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>7.7071290944123313E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="12">
+        <v>294946</v>
+      </c>
+      <c r="D15" s="9">
+        <v>48</v>
+      </c>
+      <c r="E15" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.5093972864109807E-2</v>
+      </c>
+      <c r="F15" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>9.2485549132947972E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12">
+        <v>311264</v>
+      </c>
+      <c r="D16" s="9">
+        <v>12</v>
+      </c>
+      <c r="E16" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.648230648855816E-2</v>
+      </c>
+      <c r="F16" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.3121387283236993E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12">
+        <v>320091</v>
+      </c>
+      <c r="D17" s="9">
+        <v>14</v>
+      </c>
+      <c r="E17" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.7233306666460205E-2</v>
+      </c>
+      <c r="F17" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.6974951830443159E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12">
+        <v>325052</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>2.7655387994496013E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.5414258188824663E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12">
+        <v>354266</v>
+      </c>
+      <c r="D19" s="9">
+        <v>36</v>
+      </c>
+      <c r="E19" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.0140911864126738E-2</v>
+      </c>
+      <c r="F19" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>6.9364161849710976E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12">
+        <v>357773</v>
+      </c>
+      <c r="D20" s="9">
+        <v>34</v>
+      </c>
+      <c r="E20" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.0439287033935562E-2</v>
+      </c>
+      <c r="F20" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>6.5510597302504817E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12">
+        <v>385051</v>
+      </c>
+      <c r="D21" s="9">
+        <v>6</v>
+      </c>
+      <c r="E21" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.2760096238966946E-2</v>
+      </c>
+      <c r="F21" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.1560693641618497E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="12">
+        <v>419142</v>
+      </c>
+      <c r="D22" s="9">
+        <v>15</v>
+      </c>
+      <c r="E22" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.5660554725979371E-2</v>
+      </c>
+      <c r="F22" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.8901734104046242E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>439912</v>
+      </c>
+      <c r="D23" s="9">
+        <v>23</v>
+      </c>
+      <c r="E23" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.7427664015095216E-2</v>
+      </c>
+      <c r="F23" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>4.4315992292870907E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12">
+        <v>454048</v>
+      </c>
+      <c r="D24" s="9">
+        <v>28</v>
+      </c>
+      <c r="E24" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.8630353322314355E-2</v>
+      </c>
+      <c r="F24" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>5.3949903660886318E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="12">
+        <v>455427</v>
+      </c>
+      <c r="D25" s="9">
+        <v>36</v>
+      </c>
+      <c r="E25" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.8747678488885884E-2</v>
+      </c>
+      <c r="F25" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>6.9364161849710976E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="12">
+        <v>457122</v>
+      </c>
+      <c r="D26" s="9">
+        <v>9</v>
+      </c>
+      <c r="E26" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>3.889188890029905E-2</v>
+      </c>
+      <c r="F26" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.7341040462427744E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12">
+        <v>473549</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8</v>
+      </c>
+      <c r="E27" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.0289496232619987E-2</v>
+      </c>
+      <c r="F27" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.5414258188824663E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12">
+        <v>484995</v>
+      </c>
+      <c r="D28" s="9">
+        <v>19</v>
+      </c>
+      <c r="E28" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.1263320639130331E-2</v>
+      </c>
+      <c r="F28" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>3.6608863198458574E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12">
+        <v>492612</v>
+      </c>
+      <c r="D29" s="9">
+        <v>29</v>
+      </c>
+      <c r="E29" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.1911374151657792E-2</v>
+      </c>
+      <c r="F29" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>5.5876685934489405E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="12">
+        <v>503164</v>
+      </c>
+      <c r="D30" s="9">
+        <v>28</v>
+      </c>
+      <c r="E30" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.2809137137635185E-2</v>
+      </c>
+      <c r="F30" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>5.3949903660886318E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="12">
+        <v>549220</v>
+      </c>
+      <c r="D31" s="9">
+        <v>11</v>
+      </c>
+      <c r="E31" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.6727576493413671E-2</v>
+      </c>
+      <c r="F31" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>2.119460500963391E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="12">
+        <v>586649</v>
+      </c>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
+      <c r="E32" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>4.9912031649037972E-2</v>
+      </c>
+      <c r="F32" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>1.348747591522158E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="12">
+        <v>622021</v>
+      </c>
+      <c r="D33" s="9">
+        <v>5</v>
+      </c>
+      <c r="E33" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>5.2921477473525477E-2</v>
+      </c>
+      <c r="F33" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>9.6339113680154135E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="12">
+        <v>673432</v>
+      </c>
+      <c r="D34" s="9">
+        <v>20</v>
+      </c>
+      <c r="E34" s="15">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>5.7295519633503066E-2</v>
+      </c>
+      <c r="F34" s="15">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>3.8535645472061654E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="7">
+        <f>SUBTOTAL(109,Table247[População])</f>
+        <v>11753659</v>
+      </c>
+      <c r="D35" s="7">
+        <f>SUBTOTAL(109,Table247[Guias rebaixadas])</f>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9">
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="7">
-        <f>SUBTOTAL(109,Table2478[População])</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <f>SUBTOTAL(109,Table2478[Guias rebaixadas])</f>
-        <v>523</v>
+      <c r="E38" s="2" t="e">
+        <f>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" s="3" t="e">
+        <f>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\sidewalk_service_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C0FD1-9744-4EA3-9ECB-4AAB56A8EE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7355CF-37DE-42EB-BC4F-E19742BFC646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" firstSheet="1" activeTab="5" xr2:uid="{F20C68B3-3D5D-4528-A90E-249FF6CBE367}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="2Sem2018" sheetId="1" r:id="rId2"/>
     <sheet name="Ano2018" sheetId="3" r:id="rId3"/>
     <sheet name="Populacao" sheetId="6" r:id="rId4"/>
-    <sheet name="Ranking-Calcadas" sheetId="7" r:id="rId5"/>
-    <sheet name="Ranking-Guias rebaixadas" sheetId="4" r:id="rId6"/>
+    <sheet name="IDH" sheetId="8" r:id="rId5"/>
+    <sheet name="Ranking-Calcadas" sheetId="7" r:id="rId6"/>
+    <sheet name="Ranking-Guias rebaixadas" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="90">
   <si>
     <t>Subprefeitura</t>
   </si>
@@ -290,14 +291,33 @@
     <t>Calcadas</t>
   </si>
   <si>
-    <t>Guias Calcadas_p</t>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>IDHM Renda</t>
+  </si>
+  <si>
+    <t>IDHM</t>
+  </si>
+  <si>
+    <t>IDH</t>
+  </si>
+  <si>
+    <t>IDH_p</t>
+  </si>
+  <si>
+    <t>Calcadas_p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000_);\(#,##0.000\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,16 +360,41 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -403,13 +448,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,13 +489,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C63152D7-1AA0-4E9A-BFBA-49C0C0691B92}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="52">
     <dxf>
       <font>
         <b val="0"/>
@@ -462,460 +525,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -993,7 +602,198 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000_);\(#,##0.000\)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1027,10 +827,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1052,7 +875,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1071,6 +893,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1101,14 +944,11 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1235,11 +1075,242 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1269,7 +1340,195 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1282,6 +1541,28 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1297,6 +1578,771 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IDHM Renda e</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IDHM </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDH!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDHM Renda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IDH!$B$3:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>ARICANDUVA-FORMOSA-CARRAO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BUTANTA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CAMPO LIMPO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CAPELA DO SOCORRO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CASA VERDE-CACHOEIRINHA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CIDADE ADEMAR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CIDADE TIRADENTES</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ERMELINO MATARAZZO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FREGUESIA-BRASILANDIA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GUAIANASES</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IPIRANGA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ITAIM PAULISTA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ITAQUERA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>JABAQUARA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>JACANA-TREMEMBE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LAPA</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>M'BOI MIRIM</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MOOCA</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>PARELHEIROS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>PENHA</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>PERUS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>PINHEIROS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PIRITUBA-JARAGUA</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>SANTANA-TUCURUVI</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>SANTO AMARO</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>SAO MATEUS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>SAO MIGUEL</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>SAPOPEMBA</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>VILA MARIANA</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>VILA MARIA-VILA GUILHERME</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>VILA PRUDENTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDH!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000_);\(#,##0.000\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.78700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B30-4C21-83BC-87F978B6C5A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDH!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDHM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IDH!$B$3:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>ARICANDUVA-FORMOSA-CARRAO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BUTANTA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CAMPO LIMPO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CAPELA DO SOCORRO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CASA VERDE-CACHOEIRINHA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CIDADE ADEMAR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CIDADE TIRADENTES</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ERMELINO MATARAZZO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FREGUESIA-BRASILANDIA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GUAIANASES</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IPIRANGA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ITAIM PAULISTA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ITAQUERA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>JABAQUARA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>JACANA-TREMEMBE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LAPA</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>M'BOI MIRIM</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MOOCA</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>PARELHEIROS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>PENHA</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>PERUS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>PINHEIROS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PIRITUBA-JARAGUA</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>SANTANA-TUCURUVI</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>SANTO AMARO</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>SAO MATEUS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>SAO MIGUEL</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>SAPOPEMBA</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>VILA MARIANA</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>VILA MARIA-VILA GUILHERME</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>VILA PRUDENTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDH!$D$3:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B30-4C21-83BC-87F978B6C5A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1317317792"/>
+        <c:axId val="1317324816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1317317792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317324816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1317324816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000_);\(#,##0.000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317317792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1377,7 +2423,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ranking-Calcadas'!$E$2</c:f>
+              <c:f>'Ranking-Calcadas'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1412,105 +2458,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Ranking-Calcadas'!$E$3:$E$34</c:f>
+              <c:f>'Ranking-Calcadas'!$F$3:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>2.4571156947806636E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.3398210718891879E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>1.9620273142176407E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3894771832328979E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9646732987574338E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2760096238966946E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.4356635665540407E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>3.889188890029905E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7655387994496013E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2921477473525477E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7427664015095216E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5660554725979371E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6727576493413671E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0649314396478578E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7295519633503066E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.7725033540619137E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
+                  <c:v>4.9912031649037972E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0140911864126738E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1066035691523804E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.648230648855816E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0289496232619987E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2592368895507347E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1263320639130331E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1.9422122081302513E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9620273142176407E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9646732987574338E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0649314396478578E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="24">
+                  <c:v>3.8630353322314355E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0439287033935562E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7233306666460205E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8747678488885884E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.2809137137635185E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>2.076400208649919E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1066035691523804E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2592368895507347E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3894771832328979E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4571156947806636E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="30">
+                  <c:v>4.1911374151657792E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2.5093972864109807E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.648230648855816E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7233306666460205E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.7655387994496013E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.0140911864126738E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.0439287033935562E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2760096238966946E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.5660554725979371E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.7427664015095216E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8630353322314355E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.8747678488885884E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.889188890029905E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.0289496232619987E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.1263320639130331E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.1911374151657792E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.2809137137635185E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.6727576493413671E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.9912031649037972E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.2921477473525477E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.7295519633503066E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,11 +2573,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ranking-Calcadas'!$F$2</c:f>
+              <c:f>'Ranking-Calcadas'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Guias Calcadas_p</c:v>
+                  <c:v>Calcadas_p</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1562,105 +2608,105 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Ranking-Calcadas'!$F$3:$F$34</c:f>
+              <c:f>'Ranking-Calcadas'!$H$3:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>1.9017230376515634E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.3178047223994898E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>7.0197830248883214E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0465858328015316E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8653477983407786E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3592852584556477E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7.7217613273771538E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>1.7294192724952136E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0357370772176132E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2546266751754947E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2208040842373964E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9227823867262286E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4460753031269942E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7460114869176768E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0778557753669432E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.1104020421186982E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
+                  <c:v>2.9674537332482452E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9610721123165283E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1059349074664963E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7696234843650289E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1544352265475433E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0950861518825781E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6502871729419274E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1.6209317166560305E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0197830248883214E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8653477983407786E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7460114869176768E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="24">
+                  <c:v>4.7223994894703254E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2839821314613913E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8800255264837269E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.819400127632418E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.975749840459477E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>3.5673261008296105E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1059349074664963E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0950861518825781E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0465858328015316E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.9017230376515634E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="30">
+                  <c:v>7.3516273133375873E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>5.2520740268028082E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.7696234843650289E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.8800255264837269E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0357370772176132E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9610721123165283E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.2839821314613913E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3592852584556477E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.9227823867262286E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.2208040842373964E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.7223994894703254E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.819400127632418E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.7294192724952136E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.1544352265475433E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.6502871729419274E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.3516273133375873E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.975749840459477E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.4460753031269942E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9674537332482452E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.2546266751754947E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.0778557753669432E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1874,7 +2920,2376 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Tickets Calçadas x IDH</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ranking-Calcadas'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDH_p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$G$3:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.74969672462596E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8710068742418108E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8710068742418108E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9114435907804281E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.951880307319045E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.951880307319045E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.951880307319045E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9923170238576623E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0327537403962792E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0731904569348965E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0731904569348965E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0731904569348965E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1136271734735134E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1540638900121307E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1540638900121307E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1945006065507479E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1945006065507479E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1945006065507479E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2349373230893645E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2349373230893645E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3158107561665984E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3158107561665984E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3158107561665984E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4775576223210668E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.517994338859684E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.517994338859684E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5988677719369179E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6797412050141524E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6797412050141524E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8010513546300029E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8010513546300029E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2601-4E12-9612-083AD686C3B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ranking-Calcadas'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calcadas_p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$H$3:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.9017230376515634E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3178047223994898E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0197830248883214E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0465858328015316E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8653477983407786E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3592852584556477E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7217613273771538E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7294192724952136E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0357370772176132E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2546266751754947E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2208040842373964E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9227823867262286E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4460753031269942E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7460114869176768E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0778557753669432E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1104020421186982E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9674537332482452E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9610721123165283E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1059349074664963E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7696234843650289E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1544352265475433E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0950861518825781E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6502871729419274E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6209317166560305E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7223994894703254E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2839821314613913E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8800255264837269E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.819400127632418E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.975749840459477E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5673261008296105E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3516273133375873E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2520740268028082E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2601-4E12-9612-083AD686C3B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1231101567"/>
+        <c:axId val="1237437007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1231101567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1237437007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1237437007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231101567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tickets calçadas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> x IDHM subprefeitura</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$D$4:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$E$4:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8AC-4C37-90F2-51F607FB084F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1453207136"/>
+        <c:axId val="1261901936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1453207136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IDHM Subprefeituras</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261901936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1261901936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tickets</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calçadas</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1453207136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tickets calçadas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> x População subprefeitura</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>288801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>457122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>325052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>622021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>439912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>419142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>549220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>242705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>673432</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>208334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>586649</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>354266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>247603</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>311264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>473549</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>265543</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>484995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>228281</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>454048</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>357773</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320091</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>455427</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>503164</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>244053</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>492612</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>294946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$E$3:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C199-4BDA-B210-77F8664D5021}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1453207136"/>
+        <c:axId val="1261901936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1453207136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>População Subprefeituras</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261901936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1261901936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tickets</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Calçadas</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1453207136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> IDHM x População subprefeitura</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$C$4:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>157478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230610</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>385051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>457122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>325052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>622021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>439912</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>419142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>549220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>673432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>208334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>586649</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>354266</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247603</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>311264</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>473549</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>265543</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>484995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>228281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>454048</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>357773</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>320091</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>455427</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>503164</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>244053</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>492612</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>294946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ranking-Calcadas'!$D$4:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A65D-4BD1-8EC9-97FC155FA58F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1453207136"/>
+        <c:axId val="1261901936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1453207136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>População Subprefeituras</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261901936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1261901936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IDHM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1453207136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2536,8 +5951,208 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3542,20 +7157,2576 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>135730</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>521492</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>173830</xdr:colOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB7A773-CC05-40EF-BCD6-645EB9EFB8D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>633147</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25663</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>35454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3582,10 +9753,160 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD5085E-DED0-458F-9441-078E1DDBE48D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>415394</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452436</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BC7B35-0620-40A9-8E8A-09F87A552AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AAD49B-7428-4309-81A3-142ABC155CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>26458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195791</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>70908</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7706F76E-2962-4303-B60B-411AE4B4F31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3627,10 +9948,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77AF48A9-7393-4472-BEF2-39B89A58BF93}" name="Table1" displayName="Table1" ref="B2:D36" totalsRowCount="1" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77AF48A9-7393-4472-BEF2-39B89A58BF93}" name="Table1" displayName="Table1" ref="B2:D36" totalsRowCount="1" headerRowDxfId="51">
   <autoFilter ref="B2:D35" xr:uid="{357B1428-2086-456B-8B30-E6E242BCE77D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BEA5ACF0-C4BB-424B-9A3D-91F100691024}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{BEA5ACF0-C4BB-424B-9A3D-91F100691024}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="50" totalsRowDxfId="49"/>
     <tableColumn id="2" xr3:uid="{52992C78-2935-436C-81F0-30BCA439A3EE}" name="Calçadas, guias e postes" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{D332F945-37BA-46D0-9287-CDE8D0903E18}" name="Guias rebaixadas" totalsRowFunction="sum"/>
   </tableColumns>
@@ -3639,27 +9960,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1431F7D6-8C98-44A9-ADA0-D98C55143BF6}" name="Table2" displayName="Table2" ref="B2:D36" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1431F7D6-8C98-44A9-ADA0-D98C55143BF6}" name="Table2" displayName="Table2" ref="B2:D36" totalsRowCount="1" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="B2:D35" xr:uid="{E998A03B-CCDB-485F-80E0-6B70C5CA9314}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{766633CC-ED06-439F-A1EC-73AB1031A63A}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{C3D81166-EA6A-401C-B345-C228E6A665C5}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{28ECA203-FD33-4A62-A721-2FF06A780280}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{766633CC-ED06-439F-A1EC-73AB1031A63A}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{C3D81166-EA6A-401C-B345-C228E6A665C5}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{28ECA203-FD33-4A62-A721-2FF06A780280}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B8BB3E0-1B4D-42F9-813D-EFE1A36C6E77}" name="Table24" displayName="Table24" ref="B2:D36" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B8BB3E0-1B4D-42F9-813D-EFE1A36C6E77}" name="Table24" displayName="Table24" ref="B2:D36" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B2:D35" xr:uid="{518F44FB-9DBC-41D5-8114-3D9EF86FCEB1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DCB3581C-0F45-4CF2-932F-F6CAD9D2838B}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{6BB4E364-3ECA-4D4C-BEB7-03083F1E4B09}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{DCB3581C-0F45-4CF2-932F-F6CAD9D2838B}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{6BB4E364-3ECA-4D4C-BEB7-03083F1E4B09}" name="Calçadas, guias e postes" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>SUMIF('1Sem2018'!$B$3:$B$35,B3,Table1[Calçadas, guias e postes])+
 SUMIF('2Sem2018'!$B$3:$B$35,B3,Table2[Calçadas, guias e postes])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6314B22A-9730-496E-90C1-72EF5F0F84DB}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="23">
+    <tableColumn id="3" xr3:uid="{6314B22A-9730-496E-90C1-72EF5F0F84DB}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>SUMIF('1Sem2018'!$B$3:$B$35,B3,Table1[Guias rebaixadas])+
 SUMIF('2Sem2018'!$B$3:$B$35,B3,Table2[Guias rebaixadas])</calculatedColumnFormula>
     </tableColumn>
@@ -3691,30 +10012,48 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6BC30435-AB80-44B0-A6D5-8CC9C7F7CA90}" name="Table8" displayName="Table8" ref="B3:C35" totalsRowShown="0" dataDxfId="18" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6BC30435-AB80-44B0-A6D5-8CC9C7F7CA90}" name="Table8" displayName="Table8" ref="B3:C35" totalsRowShown="0" dataDxfId="32" dataCellStyle="Normal 2">
   <autoFilter ref="B3:C35" xr:uid="{E50CB8D0-C7B4-465A-8026-DB5D05B018CE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EBD38FC6-0BF8-49A1-AA0C-AD13FF9EB5D1}" name="Subprefeitura" dataDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{0CBC561E-6D7D-4968-A7B5-8AA8B4683480}" name="População" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{EBD38FC6-0BF8-49A1-AA0C-AD13FF9EB5D1}" name="Subprefeitura" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{0CBC561E-6D7D-4968-A7B5-8AA8B4683480}" name="População" dataDxfId="30" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F2B0CD1E-DEF9-4248-960B-28C462B9B5D7}" name="Table24710" displayName="Table24710" ref="B2:F35" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B2:F34" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F34">
-    <sortCondition ref="E2:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A3CEE81-A0F1-4676-8424-5138FD89FB3A}" name="Table7" displayName="Table7" ref="B2:D34" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="B2:D34" xr:uid="{290C0F60-71C9-4C31-B0F8-7377F2BEA670}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BCDB2B10-1622-4243-98A9-083AF7A3F41D}" name="Região" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8CB5C25B-8BFF-4D86-928C-629BECFE68BF}" name="IDHM Renda" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{F77A8418-AC63-4E6C-9594-6E314991FEC9}" name="IDHM" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F2B0CD1E-DEF9-4248-960B-28C462B9B5D7}" name="Table24710" displayName="Table24710" ref="B2:H35" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B2:H34" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H34">
+    <sortCondition ref="D2:D34"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{77065C45-E47A-4718-B3FC-8C0408688203}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{6AB01A93-D513-4E10-B3D7-F275C077E890}" name="População" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C564EF7C-C466-41DA-873A-E94AD0E8796E}" name="Calcadas" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{51D7C82A-B4E4-400C-A121-F55450DE6719}" name="População_p" dataDxfId="4" dataCellStyle="Percent">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{77065C45-E47A-4718-B3FC-8C0408688203}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6AB01A93-D513-4E10-B3D7-F275C077E890}" name="População" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{640EEFA4-4972-4DE2-B13C-11C4CEDE96EF}" name="IDH" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(B3,IDH!$B$3:$D$34,3,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C564EF7C-C466-41DA-873A-E94AD0E8796E}" name="Calcadas" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{51D7C82A-B4E4-400C-A121-F55450DE6719}" name="População_p" dataDxfId="24" dataCellStyle="Percent">
       <calculatedColumnFormula>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5788A7C8-0BB3-439E-BA69-2A3D20348304}" name="Guias Calcadas_p" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{FF26C9EB-3F1F-4BA5-AF3C-F138919AC0C3}" name="IDH_p" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5788A7C8-0BB3-439E-BA69-2A3D20348304}" name="Calcadas_p" dataDxfId="23" dataCellStyle="Percent">
       <calculatedColumnFormula>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3722,20 +10061,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC5431D6-A07F-4750-9E81-D044B212416E}" name="Table247" displayName="Table247" ref="B2:F35" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B2:F34" xr:uid="{3FB6FA6C-0BD0-4499-95F4-DFD279CEAD7A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F34">
     <sortCondition ref="E2:E34"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AD5B0124-F4F5-41C4-BBED-8BB815ABA9B4}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7E0A9D30-E148-4D46-8C91-26143F699A25}" name="População" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{61E4DFDB-5771-4DFF-8604-5CC5A3E13AD9}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{7323760F-6051-43E4-B056-878D4095FF1D}" name="População_p" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{AD5B0124-F4F5-41C4-BBED-8BB815ABA9B4}" name="Subprefeitura" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7E0A9D30-E148-4D46-8C91-26143F699A25}" name="População" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{61E4DFDB-5771-4DFF-8604-5CC5A3E13AD9}" name="Guias rebaixadas" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7323760F-6051-43E4-B056-878D4095FF1D}" name="População_p" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table247[[#This Row],[População]]/Table247[[#Totals],[População]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B00A9779-43A1-4D0B-8F65-9E51F85508EC}" name="Guias rebaixadas_p" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{B00A9779-43A1-4D0B-8F65-9E51F85508EC}" name="Guias rebaixadas_p" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table247[[#This Row],[Guias rebaixadas]]/Table247[[#Totals],[Guias rebaixadas]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5799,11 +12138,397 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D6FCA9-60A9-49F7-AF17-8738F8372C48}">
+  <dimension ref="B2:D34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="39.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.745</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.747</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.748</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54177035-4056-472F-BD13-EF14A013B065}">
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5814,12 +12539,12 @@
     <col min="5" max="5" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
       <c r="E1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -5827,628 +12552,890 @@
         <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12">
+        <v>288801</v>
+      </c>
+      <c r="D3" s="12">
+        <f>VLOOKUP(B3,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>298</v>
+      </c>
+      <c r="F3" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.4571156947806636E-2</v>
+      </c>
+      <c r="G3" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.9017230376515634E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C4" s="12">
         <v>157478</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D4" s="12">
+        <f>VLOOKUP(B4,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.68</v>
+      </c>
+      <c r="E4" s="9">
         <v>99</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F4" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
         <v>1.3398210718891879E-2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G4" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>2.74969672462596E-2</v>
+      </c>
+      <c r="H4" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
         <v>6.3178047223994898E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12">
+        <v>230610</v>
+      </c>
+      <c r="D5" s="12">
+        <f>VLOOKUP(B5,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.71</v>
+      </c>
+      <c r="E5" s="9">
+        <v>110</v>
+      </c>
+      <c r="F5" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>1.9620273142176407E-2</v>
+      </c>
+      <c r="G5" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>2.8710068742418108E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>7.0197830248883214E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>280851</v>
+      </c>
+      <c r="D6" s="12">
+        <f>VLOOKUP(B6,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.71</v>
+      </c>
+      <c r="E6" s="9">
+        <v>164</v>
+      </c>
+      <c r="F6" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.3894771832328979E-2</v>
+      </c>
+      <c r="G6" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>2.8710068742418108E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.0465858328015316E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12">
+        <v>230921</v>
+      </c>
+      <c r="D7" s="12">
+        <f>VLOOKUP(B7,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.72</v>
+      </c>
+      <c r="E7" s="9">
+        <v>449</v>
+      </c>
+      <c r="F7" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>1.9646732987574338E-2</v>
+      </c>
+      <c r="G7" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>2.9114435907804281E-2</v>
+      </c>
+      <c r="H7" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.8653477983407786E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12">
+        <v>385051</v>
+      </c>
+      <c r="D8" s="12">
+        <f>VLOOKUP(B8,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.73</v>
+      </c>
+      <c r="E8" s="9">
+        <v>213</v>
+      </c>
+      <c r="F8" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.2760096238966946E-2</v>
+      </c>
+      <c r="G8" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>2.951880307319045E-2</v>
+      </c>
+      <c r="H8" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.3592852584556477E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C9" s="12">
         <v>168743</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D9" s="12">
+        <f>VLOOKUP(B9,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.73</v>
+      </c>
+      <c r="E9" s="9">
         <v>121</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F9" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
         <v>1.4356635665540407E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="G9" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>2.951880307319045E-2</v>
+      </c>
+      <c r="H9" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
         <v>7.7217613273771538E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12">
+        <v>457122</v>
+      </c>
+      <c r="D10" s="12">
+        <f>VLOOKUP(B10,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.73</v>
+      </c>
+      <c r="E10" s="9">
+        <v>271</v>
+      </c>
+      <c r="F10" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.889188890029905E-2</v>
+      </c>
+      <c r="G10" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>2.951880307319045E-2</v>
+      </c>
+      <c r="H10" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>1.7294192724952136E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12">
+        <v>325052</v>
+      </c>
+      <c r="D11" s="12">
+        <f>VLOOKUP(B11,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.74</v>
+      </c>
+      <c r="E11" s="9">
+        <v>319</v>
+      </c>
+      <c r="F11" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.7655387994496013E-2</v>
+      </c>
+      <c r="G11" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>2.9923170238576623E-2</v>
+      </c>
+      <c r="H11" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.0357370772176132E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12">
+        <v>622021</v>
+      </c>
+      <c r="D12" s="12">
+        <f>VLOOKUP(B12,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="9">
+        <v>510</v>
+      </c>
+      <c r="F12" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>5.2921477473525477E-2</v>
+      </c>
+      <c r="G12" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.0327537403962792E-2</v>
+      </c>
+      <c r="H12" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.2546266751754947E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
+        <v>439912</v>
+      </c>
+      <c r="D13" s="12">
+        <f>VLOOKUP(B13,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.76</v>
+      </c>
+      <c r="E13" s="9">
+        <v>348</v>
+      </c>
+      <c r="F13" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.7427664015095216E-2</v>
+      </c>
+      <c r="G13" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.0731904569348965E-2</v>
+      </c>
+      <c r="H13" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.2208040842373964E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12">
+        <v>419142</v>
+      </c>
+      <c r="D14" s="12">
+        <f>VLOOKUP(B14,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.76</v>
+      </c>
+      <c r="E14" s="9">
+        <v>458</v>
+      </c>
+      <c r="F14" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.5660554725979371E-2</v>
+      </c>
+      <c r="G14" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.0731904569348965E-2</v>
+      </c>
+      <c r="H14" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.9227823867262286E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12">
+        <v>549220</v>
+      </c>
+      <c r="D15" s="12">
+        <f>VLOOKUP(B15,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.76</v>
+      </c>
+      <c r="E15" s="9">
+        <v>540</v>
+      </c>
+      <c r="F15" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.6727576493413671E-2</v>
+      </c>
+      <c r="G15" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.0731904569348965E-2</v>
+      </c>
+      <c r="H15" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.4460753031269942E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12">
+        <v>242705</v>
+      </c>
+      <c r="D16" s="12">
+        <f>VLOOKUP(B16,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.77</v>
+      </c>
+      <c r="E16" s="9">
+        <v>587</v>
+      </c>
+      <c r="F16" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.0649314396478578E-2</v>
+      </c>
+      <c r="G16" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.1136271734735134E-2</v>
+      </c>
+      <c r="H16" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.7460114869176768E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12">
+        <v>673432</v>
+      </c>
+      <c r="D17" s="12">
+        <f>VLOOKUP(B17,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.78</v>
+      </c>
+      <c r="E17" s="9">
+        <v>639</v>
+      </c>
+      <c r="F17" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>5.7295519633503066E-2</v>
+      </c>
+      <c r="G17" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.1540638900121307E-2</v>
+      </c>
+      <c r="H17" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>4.0778557753669432E-2</v>
+      </c>
+      <c r="K17">
+        <f>LINEST(Table24710[Calcadas_p],Table24710[População_p],TRUE,TRUE)</f>
+        <v>0.72944509508094468</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C18" s="12">
         <v>208334</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D18" s="12">
+        <f>VLOOKUP(B18,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.78</v>
+      </c>
+      <c r="E18" s="9">
         <v>174</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F18" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
         <v>1.7725033540619137E-2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G18" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.1540638900121307E-2</v>
+      </c>
+      <c r="H18" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
         <v>1.1104020421186982E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="12">
+        <v>586649</v>
+      </c>
+      <c r="D19" s="12">
+        <f>VLOOKUP(B19,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.79</v>
+      </c>
+      <c r="E19" s="9">
+        <v>465</v>
+      </c>
+      <c r="F19" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.9912031649037972E-2</v>
+      </c>
+      <c r="G19" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.1945006065507479E-2</v>
+      </c>
+      <c r="H19" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.9674537332482452E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="12">
+        <v>354266</v>
+      </c>
+      <c r="D20" s="12">
+        <f>VLOOKUP(B20,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.79</v>
+      </c>
+      <c r="E20" s="9">
+        <v>464</v>
+      </c>
+      <c r="F20" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.0140911864126738E-2</v>
+      </c>
+      <c r="G20" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.1945006065507479E-2</v>
+      </c>
+      <c r="H20" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.9610721123165283E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="12">
+        <v>247603</v>
+      </c>
+      <c r="D21" s="12">
+        <f>VLOOKUP(B21,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.79</v>
+      </c>
+      <c r="E21" s="9">
+        <v>330</v>
+      </c>
+      <c r="F21" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.1066035691523804E-2</v>
+      </c>
+      <c r="G21" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.1945006065507479E-2</v>
+      </c>
+      <c r="H21" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.1059349074664963E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="12">
+        <v>311264</v>
+      </c>
+      <c r="D22" s="12">
+        <f>VLOOKUP(B22,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="9">
+        <v>434</v>
+      </c>
+      <c r="F22" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.648230648855816E-2</v>
+      </c>
+      <c r="G22" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.2349373230893645E-2</v>
+      </c>
+      <c r="H22" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>2.7696234843650289E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="12">
+        <v>473549</v>
+      </c>
+      <c r="D23" s="12">
+        <f>VLOOKUP(B23,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="9">
+        <v>651</v>
+      </c>
+      <c r="F23" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.0289496232619987E-2</v>
+      </c>
+      <c r="G23" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.2349373230893645E-2</v>
+      </c>
+      <c r="H23" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>4.1544352265475433E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="12">
+        <v>265543</v>
+      </c>
+      <c r="D24" s="12">
+        <f>VLOOKUP(B24,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.82</v>
+      </c>
+      <c r="E24" s="9">
+        <v>485</v>
+      </c>
+      <c r="F24" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>2.2592368895507347E-2</v>
+      </c>
+      <c r="G24" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.3158107561665984E-2</v>
+      </c>
+      <c r="H24" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.0950861518825781E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="12">
+        <v>484995</v>
+      </c>
+      <c r="D25" s="12">
+        <f>VLOOKUP(B25,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.82</v>
+      </c>
+      <c r="E25" s="9">
+        <v>572</v>
+      </c>
+      <c r="F25" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.1263320639130331E-2</v>
+      </c>
+      <c r="G25" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.3158107561665984E-2</v>
+      </c>
+      <c r="H25" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.6502871729419274E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C26" s="12">
         <v>228281</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D26" s="12">
+        <f>VLOOKUP(B26,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.82</v>
+      </c>
+      <c r="E26" s="9">
         <v>254</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F26" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
         <v>1.9422122081302513E-2</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G26" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.3158107561665984E-2</v>
+      </c>
+      <c r="H26" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
         <v>1.6209317166560305E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12">
-        <v>230610</v>
-      </c>
-      <c r="D7" s="9">
-        <v>110</v>
-      </c>
-      <c r="E7" s="15">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="12">
+        <v>454048</v>
+      </c>
+      <c r="D27" s="12">
+        <f>VLOOKUP(B27,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.86</v>
+      </c>
+      <c r="E27" s="9">
+        <v>740</v>
+      </c>
+      <c r="F27" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>1.9620273142176407E-2</v>
-      </c>
-      <c r="F7" s="15">
+        <v>3.8630353322314355E-2</v>
+      </c>
+      <c r="G27" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.4775576223210668E-2</v>
+      </c>
+      <c r="H27" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>7.0197830248883214E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12">
-        <v>230921</v>
-      </c>
-      <c r="D8" s="9">
-        <v>449</v>
-      </c>
-      <c r="E8" s="15">
+        <v>4.7223994894703254E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="12">
+        <v>357773</v>
+      </c>
+      <c r="D28" s="12">
+        <f>VLOOKUP(B28,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.87</v>
+      </c>
+      <c r="E28" s="9">
+        <v>828</v>
+      </c>
+      <c r="F28" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>1.9646732987574338E-2</v>
-      </c>
-      <c r="F8" s="15">
+        <v>3.0439287033935562E-2</v>
+      </c>
+      <c r="G28" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.517994338859684E-2</v>
+      </c>
+      <c r="H28" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>2.8653477983407786E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="12">
-        <v>242705</v>
-      </c>
-      <c r="D9" s="9">
-        <v>587</v>
-      </c>
-      <c r="E9" s="15">
+        <v>5.2839821314613913E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="12">
+        <v>320091</v>
+      </c>
+      <c r="D29" s="12">
+        <f>VLOOKUP(B29,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.87</v>
+      </c>
+      <c r="E29" s="9">
+        <v>608</v>
+      </c>
+      <c r="F29" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>2.0649314396478578E-2</v>
-      </c>
-      <c r="F9" s="15">
+        <v>2.7233306666460205E-2</v>
+      </c>
+      <c r="G29" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.517994338859684E-2</v>
+      </c>
+      <c r="H29" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>3.7460114869176768E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="s">
+        <v>3.8800255264837269E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="12">
+        <v>455427</v>
+      </c>
+      <c r="D30" s="12">
+        <f>VLOOKUP(B30,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.89</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1382</v>
+      </c>
+      <c r="F30" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>3.8747678488885884E-2</v>
+      </c>
+      <c r="G30" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.5988677719369179E-2</v>
+      </c>
+      <c r="H30" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>8.819400127632418E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="12">
+        <v>503164</v>
+      </c>
+      <c r="D31" s="12">
+        <f>VLOOKUP(B31,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.91</v>
+      </c>
+      <c r="E31" s="9">
+        <v>623</v>
+      </c>
+      <c r="F31" s="15">
+        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
+        <v>4.2809137137635185E-2</v>
+      </c>
+      <c r="G31" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.6797412050141524E-2</v>
+      </c>
+      <c r="H31" s="15">
+        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
+        <v>3.975749840459477E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C32" s="12">
         <v>244053</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D32" s="12">
+        <f>VLOOKUP(B32,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.91</v>
+      </c>
+      <c r="E32" s="9">
         <v>559</v>
       </c>
-      <c r="E10" s="15">
+      <c r="F32" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
         <v>2.076400208649919E-2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G32" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.6797412050141524E-2</v>
+      </c>
+      <c r="H32" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
         <v>3.5673261008296105E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12">
-        <v>247603</v>
-      </c>
-      <c r="D11" s="9">
-        <v>330</v>
-      </c>
-      <c r="E11" s="15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="12">
+        <v>492612</v>
+      </c>
+      <c r="D33" s="12">
+        <f>VLOOKUP(B33,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1152</v>
+      </c>
+      <c r="F33" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>2.1066035691523804E-2</v>
-      </c>
-      <c r="F11" s="15">
+        <v>4.1911374151657792E-2</v>
+      </c>
+      <c r="G33" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.8010513546300029E-2</v>
+      </c>
+      <c r="H33" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>2.1059349074664963E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="12">
-        <v>265543</v>
-      </c>
-      <c r="D12" s="9">
-        <v>485</v>
-      </c>
-      <c r="E12" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>2.2592368895507347E-2</v>
-      </c>
-      <c r="F12" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>3.0950861518825781E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12">
-        <v>280851</v>
-      </c>
-      <c r="D13" s="9">
-        <v>164</v>
-      </c>
-      <c r="E13" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>2.3894771832328979E-2</v>
-      </c>
-      <c r="F13" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>1.0465858328015316E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="12">
-        <v>288801</v>
-      </c>
-      <c r="D14" s="9">
-        <v>298</v>
-      </c>
-      <c r="E14" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>2.4571156947806636E-2</v>
-      </c>
-      <c r="F14" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>1.9017230376515634E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
+        <v>7.3516273133375873E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C34" s="12">
         <v>294946</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D34" s="12">
+        <f>VLOOKUP(B34,IDH!$B$3:$D$34,3,FALSE)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E34" s="9">
         <v>823</v>
       </c>
-      <c r="E15" s="15">
+      <c r="F34" s="15">
         <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
         <v>2.5093972864109807E-2</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G34" s="15">
+        <f>Table24710[[#This Row],[IDH]]/Table24710[[#Totals],[IDH]]</f>
+        <v>3.8010513546300029E-2</v>
+      </c>
+      <c r="H34" s="15">
         <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
         <v>5.2520740268028082E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="12">
-        <v>311264</v>
-      </c>
-      <c r="D16" s="9">
-        <v>434</v>
-      </c>
-      <c r="E16" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>2.648230648855816E-2</v>
-      </c>
-      <c r="F16" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>2.7696234843650289E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="12">
-        <v>320091</v>
-      </c>
-      <c r="D17" s="9">
-        <v>608</v>
-      </c>
-      <c r="E17" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>2.7233306666460205E-2</v>
-      </c>
-      <c r="F17" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>3.8800255264837269E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="12">
-        <v>325052</v>
-      </c>
-      <c r="D18" s="9">
-        <v>319</v>
-      </c>
-      <c r="E18" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>2.7655387994496013E-2</v>
-      </c>
-      <c r="F18" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>2.0357370772176132E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="12">
-        <v>354266</v>
-      </c>
-      <c r="D19" s="9">
-        <v>464</v>
-      </c>
-      <c r="E19" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>3.0140911864126738E-2</v>
-      </c>
-      <c r="F19" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>2.9610721123165283E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="12">
-        <v>357773</v>
-      </c>
-      <c r="D20" s="9">
-        <v>828</v>
-      </c>
-      <c r="E20" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>3.0439287033935562E-2</v>
-      </c>
-      <c r="F20" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>5.2839821314613913E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="12">
-        <v>385051</v>
-      </c>
-      <c r="D21" s="9">
-        <v>213</v>
-      </c>
-      <c r="E21" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>3.2760096238966946E-2</v>
-      </c>
-      <c r="F21" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>1.3592852584556477E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="12">
-        <v>419142</v>
-      </c>
-      <c r="D22" s="9">
-        <v>458</v>
-      </c>
-      <c r="E22" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>3.5660554725979371E-2</v>
-      </c>
-      <c r="F22" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>2.9227823867262286E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12">
-        <v>439912</v>
-      </c>
-      <c r="D23" s="9">
-        <v>348</v>
-      </c>
-      <c r="E23" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>3.7427664015095216E-2</v>
-      </c>
-      <c r="F23" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>2.2208040842373964E-2</v>
-      </c>
-      <c r="H23">
-        <f>LINEST(Table24710[Guias Calcadas_p],Table24710[População_p],TRUE,TRUE)</f>
-        <v>0.72944509508094502</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12">
-        <v>454048</v>
-      </c>
-      <c r="D24" s="9">
-        <v>740</v>
-      </c>
-      <c r="E24" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>3.8630353322314355E-2</v>
-      </c>
-      <c r="F24" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>4.7223994894703254E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="12">
-        <v>455427</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1382</v>
-      </c>
-      <c r="E25" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>3.8747678488885884E-2</v>
-      </c>
-      <c r="F25" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>8.819400127632418E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="12">
-        <v>457122</v>
-      </c>
-      <c r="D26" s="9">
-        <v>271</v>
-      </c>
-      <c r="E26" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>3.889188890029905E-2</v>
-      </c>
-      <c r="F26" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>1.7294192724952136E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="12">
-        <v>473549</v>
-      </c>
-      <c r="D27" s="9">
-        <v>651</v>
-      </c>
-      <c r="E27" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>4.0289496232619987E-2</v>
-      </c>
-      <c r="F27" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>4.1544352265475433E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12">
-        <v>484995</v>
-      </c>
-      <c r="D28" s="9">
-        <v>572</v>
-      </c>
-      <c r="E28" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>4.1263320639130331E-2</v>
-      </c>
-      <c r="F28" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>3.6502871729419274E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="12">
-        <v>492612</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1152</v>
-      </c>
-      <c r="E29" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>4.1911374151657792E-2</v>
-      </c>
-      <c r="F29" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>7.3516273133375873E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="12">
-        <v>503164</v>
-      </c>
-      <c r="D30" s="9">
-        <v>623</v>
-      </c>
-      <c r="E30" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>4.2809137137635185E-2</v>
-      </c>
-      <c r="F30" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>3.975749840459477E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="12">
-        <v>549220</v>
-      </c>
-      <c r="D31" s="9">
-        <v>540</v>
-      </c>
-      <c r="E31" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>4.6727576493413671E-2</v>
-      </c>
-      <c r="F31" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>3.4460753031269942E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="12">
-        <v>586649</v>
-      </c>
-      <c r="D32" s="9">
-        <v>465</v>
-      </c>
-      <c r="E32" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>4.9912031649037972E-2</v>
-      </c>
-      <c r="F32" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>2.9674537332482452E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="12">
-        <v>622021</v>
-      </c>
-      <c r="D33" s="9">
-        <v>510</v>
-      </c>
-      <c r="E33" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>5.2921477473525477E-2</v>
-      </c>
-      <c r="F33" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>3.2546266751754947E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="12">
-        <v>673432</v>
-      </c>
-      <c r="D34" s="9">
-        <v>639</v>
-      </c>
-      <c r="E34" s="15">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>5.7295519633503066E-2</v>
-      </c>
-      <c r="F34" s="15">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>4.0778557753669432E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
@@ -6457,27 +13444,27 @@
         <v>11753659</v>
       </c>
       <c r="D35" s="7">
+        <f>SUBTOTAL(109,Table24710[IDH])</f>
+        <v>24.730000000000004</v>
+      </c>
+      <c r="E35" s="7">
         <f>SUBTOTAL(109,Table24710[Calcadas])</f>
         <v>15670</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="13">
-        <v>0</v>
-      </c>
-      <c r="D38" s="14">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2" t="e">
-        <f>Table24710[[#This Row],[População]]/Table24710[[#Totals],[População]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="3" t="e">
-        <f>Table24710[[#This Row],[Calcadas]]/Table24710[[#Totals],[Calcadas]]</f>
-        <v>#VALUE!</v>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D57">
+        <f>CORREL(C4:C34,D4:D34)</f>
+        <v>0.18989779677131899</v>
       </c>
     </row>
   </sheetData>
@@ -6489,11 +13476,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E87C82-E88C-4E0B-ACBF-F6F96205420A}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\sidewalk_service_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7355CF-37DE-42EB-BC4F-E19742BFC646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB0B89-0E85-4FD4-B8B5-A246B85C1460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" firstSheet="1" activeTab="5" xr2:uid="{F20C68B3-3D5D-4528-A90E-249FF6CBE367}"/>
   </bookViews>
@@ -12141,8 +12141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D6FCA9-60A9-49F7-AF17-8738F8372C48}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12527,8 +12527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54177035-4056-472F-BD13-EF14A013B065}">
   <dimension ref="B1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
